--- a/recordm/customUI/dash/assets/instances/DASHBOARD - SYSTEM.xlsx
+++ b/recordm/customUI/dash/assets/instances/DASHBOARD - SYSTEM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimes/.local/share/cob-cli/customize.dashboard.dash/recordm/customUI/dash/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimes/.local/share/cob-cli/customize.dashboard.dash/recordm/customUI/dash/assets/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1642D-4B5F-2A42-BDCF-5022C7080A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B919B32-A2F2-D74E-8B07-03279245090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="6240" windowWidth="31340" windowHeight="14760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
     <t>Classes, Icon, Attention</t>
   </si>
   <si>
-    <t>/recordm/localresource/dash/assets/create.png</t>
+    <t>/recordm/localresource/dash/assets/images/create.png</t>
   </si>
 </sst>
 </file>
